--- a/LKSCode/LKS081C8T8Lesson/LKS081C8T8/081引脚.xlsx
+++ b/LKSCode/LKS081C8T8Lesson/LKS081C8T8/081引脚.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="32740" windowHeight="14610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>输入</t>
     </r>
     <r>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ADC </t>
     </r>
     <r>
@@ -160,6 +172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t>RSTN/P0.2</t>
     </r>
     <r>
@@ -432,6 +450,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片电源输入。片外去耦电容建议≥</t>
     </r>
     <r>
@@ -488,6 +512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">IIC </t>
     </r>
     <r>
@@ -577,6 +607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">IIC </t>
     </r>
     <r>
@@ -666,6 +702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ADC </t>
     </r>
     <r>
@@ -701,6 +743,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">UART1_TX(RX)/Timer1 </t>
     </r>
     <r>
@@ -768,10 +816,16 @@
     </r>
   </si>
   <si>
-    <t>UART1_TX(RX)/TIM1_CH1/P0.5</t>
-  </si>
-  <si>
-    <r>
+    <t>UART1_TX(RX)/TIM1_CH1/P0.7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">UART1_TX(RX)/Timer1 </t>
     </r>
     <r>
@@ -843,6 +897,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -950,6 +1010,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -1084,6 +1150,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -1254,6 +1326,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -1424,6 +1502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -1567,6 +1651,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>比较器</t>
     </r>
     <r>
@@ -1854,6 +1944,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电</t>
     </r>
     <r>
@@ -2087,6 +2183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电</t>
     </r>
     <r>
@@ -2257,6 +2359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Timer3 </t>
     </r>
     <r>
@@ -2355,6 +2463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -2399,6 +2513,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -2443,6 +2563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ADC </t>
     </r>
     <r>
@@ -2514,6 +2640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -2558,6 +2690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -2602,6 +2740,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">UART1_TX(RX)/Timer3 </t>
     </r>
     <r>
@@ -2718,6 +2862,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">UART1_TX(RX)/Timer3 </t>
     </r>
     <r>
@@ -2834,6 +2984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">32kHz RC </t>
     </r>
     <r>
@@ -2932,6 +3088,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">4MHz RC </t>
     </r>
     <r>
@@ -3030,6 +3192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3101,6 +3269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3172,6 +3346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3243,6 +3423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3314,6 +3500,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3511,6 +3703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>电机</t>
     </r>
     <r>
@@ -3708,6 +3906,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -3752,6 +3956,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -3796,6 +4006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SPI_DI(D0)/IC </t>
     </r>
     <r>
@@ -3912,6 +4128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SPI_DI(D0)/IC </t>
     </r>
     <r>
@@ -3974,6 +4196,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -4018,6 +4246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>运放</t>
     </r>
     <r>
@@ -4062,6 +4296,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SPI </t>
     </r>
     <r>
@@ -4214,6 +4454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>比较器</t>
     </r>
     <r>
@@ -4258,6 +4504,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>比较器</t>
     </r>
     <r>
@@ -4392,6 +4644,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -4670,6 +4928,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -4948,6 +5212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Hall </t>
     </r>
     <r>
@@ -5229,6 +5499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SWD </t>
     </r>
     <r>
@@ -5273,6 +5549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SWD </t>
     </r>
     <r>
@@ -5975,7 +6257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6001,9 +6283,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6540,11 +6819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -6552,7 +6831,7 @@
     <col min="1" max="1" width="6.09090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="107.090909090909" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.1818181818182" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.25" spans="1:4">
@@ -6569,7 +6848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.5" hidden="1" spans="1:4">
+    <row r="2" ht="16.25" spans="1:4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6583,7 +6862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="47.25" hidden="1" spans="1:4">
+    <row r="3" ht="47.25" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6597,7 +6876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.25" hidden="1" spans="1:4">
+    <row r="4" ht="16.25" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6611,7 +6890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.25" hidden="1" spans="1:4">
+    <row r="5" ht="16.25" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6625,7 +6904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="16.25" hidden="1" spans="1:4">
+    <row r="6" ht="16.25" spans="1:4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6639,7 +6918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.25" hidden="1" spans="1:4">
+    <row r="7" ht="16.25" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6653,7 +6932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.25" hidden="1" spans="1:4">
+    <row r="8" ht="16.25" spans="1:4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6667,7 +6946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="16.25" hidden="1" spans="1:4">
+    <row r="9" ht="16.25" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6681,7 +6960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="16.25" hidden="1" spans="1:4">
+    <row r="10" ht="16.25" spans="1:4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6695,7 +6974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="16.25" hidden="1" spans="1:4">
+    <row r="11" ht="16.25" spans="1:4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6709,7 +6988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="16.25" hidden="1" spans="1:4">
+    <row r="12" ht="16.25" spans="1:4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6723,7 +7002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="16.25" hidden="1" spans="1:4">
+    <row r="13" ht="16.25" spans="1:4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6737,7 +7016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="16.25" hidden="1" spans="1:4">
+    <row r="14" ht="16.25" spans="1:4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6751,7 +7030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="16.25" hidden="1" spans="1:4">
+    <row r="15" ht="16.25" spans="1:4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6765,7 +7044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="16.25" hidden="1" spans="1:4">
+    <row r="16" ht="16.25" spans="1:4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6792,7 +7071,7 @@
       <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="31.75" spans="1:4">
       <c r="A18" s="5">
@@ -6808,7 +7087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="31" hidden="1" spans="1:4">
+    <row r="19" ht="31.75" spans="1:4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6822,7 +7101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="16.25" hidden="1" spans="1:4">
+    <row r="20" ht="16.25" spans="1:4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6836,7 +7115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="16.25" hidden="1" spans="1:4">
+    <row r="21" ht="16.25" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6850,7 +7129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="16.25" hidden="1" spans="1:4">
+    <row r="22" ht="16.25" spans="1:4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6864,7 +7143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="16.25" hidden="1" spans="1:4">
+    <row r="23" ht="16.25" spans="1:4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6874,11 +7153,11 @@
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="16.25" hidden="1" spans="1:4">
+    <row r="24" ht="16.25" spans="1:4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6892,7 +7171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="16.25" hidden="1" spans="1:4">
+    <row r="25" ht="16.25" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6906,7 +7185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="31.75" hidden="1" spans="1:4">
+    <row r="26" ht="31.75" spans="1:4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6920,7 +7199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="31.75" hidden="1" spans="1:4">
+    <row r="27" ht="31.75" spans="1:4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6934,7 +7213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="16.25" hidden="1" spans="1:4">
+    <row r="28" ht="16.25" spans="1:4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6948,7 +7227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="16.25" hidden="1" spans="1:4">
+    <row r="29" ht="16.25" spans="1:4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6962,7 +7241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" ht="16.25" hidden="1" spans="1:4">
+    <row r="30" ht="16.25" spans="1:4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6976,7 +7255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" ht="16.25" hidden="1" spans="1:4">
+    <row r="31" ht="16.25" spans="1:4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6990,7 +7269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" ht="16.25" hidden="1" spans="1:4">
+    <row r="32" ht="16.25" spans="1:4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7004,7 +7283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="16.25" hidden="1" spans="1:4">
+    <row r="33" ht="16.25" spans="1:4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -7046,7 +7325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" ht="15.5" hidden="1" spans="1:4">
+    <row r="36" ht="16.25" spans="1:4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -7060,7 +7339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" ht="16.25" hidden="1" spans="1:4">
+    <row r="37" ht="16.25" spans="1:4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -7074,7 +7353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" ht="16.25" hidden="1" spans="1:4">
+    <row r="38" ht="16.25" spans="1:4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -7088,7 +7367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" ht="16.25" hidden="1" spans="1:4">
+    <row r="39" ht="16.25" spans="1:4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7102,7 +7381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" ht="16.25" hidden="1" spans="1:4">
+    <row r="40" ht="16.25" spans="1:4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7116,7 +7395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" ht="16.25" hidden="1" spans="1:4">
+    <row r="41" ht="16.25" spans="1:4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7130,7 +7409,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" ht="31.75" hidden="1" spans="1:4">
+    <row r="42" ht="31.75" spans="1:4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7144,7 +7423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" ht="16.25" hidden="1" spans="1:4">
+    <row r="43" ht="16.25" spans="1:4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7158,7 +7437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" ht="16.25" hidden="1" spans="1:4">
+    <row r="44" ht="16.25" spans="1:4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7172,7 +7451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" ht="31.75" hidden="1" spans="1:4">
+    <row r="45" ht="31.75" spans="1:4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7186,7 +7465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" ht="31.75" hidden="1" spans="1:4">
+    <row r="46" ht="31.75" spans="1:4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7200,7 +7479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" ht="31.75" hidden="1" spans="1:4">
+    <row r="47" ht="31.75" spans="1:4">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -7214,7 +7493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" ht="16.25" hidden="1" spans="1:4">
+    <row r="48" ht="16.25" spans="1:4">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -7228,7 +7507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" ht="16.25" hidden="1" spans="1:4">
+    <row r="49" ht="16.25" spans="1:4">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -7243,17 +7522,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D49" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ADC_CH13/MCPWM_CH3P/UART0_TX(RX)/SCL/TIM0_CH0/ADC_TRIG2/P1.10"/>
-        <filter val="MCPWM_CH3N/UART0_TX(RX)/SDA/TIM0_CH1/ADC_TRIG3/SIF/P1.11"/>
-        <filter val="CMP0_OUT/MCPWM_BKINT/SPI_CLK/TIM0_CH1/ADC_TRIG0/SIF/ADC_CH10/CMPO_IP4/P0.14"/>
-        <filter val="MCPWM_CHOP/UART0_TX(RX)/SPI_DI(D0)/TIM0_CH0/ADC_TRIG1/CMPO_IN/P0.15"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
